--- a/biology/Microbiologie/Actinobolinidae/Actinobolinidae.xlsx
+++ b/biology/Microbiologie/Actinobolinidae/Actinobolinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Actinobolinidae sont une famille de Ciliés de la classe des Gymnostomatea et de l'ordre des Spathidiida, ou, selon la classification, de l'ordre des Haptorida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Actinobolina, dérivé du grec ακτινο- / actino-, « lancer des rayons », βολή- / boli-, « jet de projectile », et du suffixe latin -ina, « relatif à », littéralement « qui lance des rayons », en référence aux tentacules que projette l’animalcule.
 </t>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Alfred Kahl décrit sommairement cette famille comme suit : 
-« Infusoires ovales, à bouche polaire, ressemblant à des Holophrya[note 1], pouvant étendre de fines structures en forme de tentacules. En position distale, ils contiennent une série de trichocystes d'environ 12 μm de long. Lorsqu'ils sont rétractés, les tentacules peuvent être observés à l'intérieur de la cellule par coloration (à l'Hématoxyline) sous forme de longues fibrilles qui s'enroulent en boule au milieu[1]. »
+« Infusoires ovales, à bouche polaire, ressemblant à des Holophrya[note 1], pouvant étendre de fines structures en forme de tentacules. En position distale, ils contiennent une série de trichocystes d'environ 12 μm de long. Lorsqu'ils sont rétractés, les tentacules peuvent être observés à l'intérieur de la cellule par coloration (à l'Hématoxyline) sous forme de longues fibrilles qui s'enroulent en boule au milieu. »
 Le même auteur en décrit ensuite deux espèces : 
 « Actinobolina radians Stein, 1852 (Belonophrya pelagica André, 1912).
 Espèce de forme obovoïde[note 2], de taille de 65 à 90 μm. Juste avant sa division transversale, la cellule peut avoir jusqu'à 120 μm de longueur ; immédiatement après sa division elle est presque sphérique. La bouche est quelque peu subpolaire, légèrement saillante entourée de petits trichocystes de 10 à 15 μm de long.
@@ -553,7 +569,7 @@
 L’ectoplasme est alvéolé ; l’entoplasme, chez les animaux mal nourris de grande taille, est en nid d'abeille. Un macronoyau en forme de saucisse ; probablement plusieurs micronoyaux. Vacuole contractile sous-terminale. Un organite en forme de brosse dorsale s'étend de la bouche à l'extrémité postérieure.
 Actinobolina vorax Wenrich, 1929.
 Cette espèce, nettement plus grande (100-200 μm), diffère sensiblement d’Actinobolina radians par deux aspects : sa forme ovoïde, c'est-à-dire effilée vers l'avant ; ses stries strictement méridiennes (moins spiralées). 
-Elle se nourrit principalement de rotifères du genre Anurea[1]. »
+Elle se nourrit principalement de rotifères du genre Anurea. »
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actinobolina radians est une espèce commune, surtout en été, vivant associée à des plantes du genre Utricularia. Actinobolina vorax a un mode de vie très différent : en effet, c'est une espèce pélagique vivant dans des eaux claires[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actinobolina radians est une espèce commune, surtout en été, vivant associée à des plantes du genre Utricularia. Actinobolina vorax a un mode de vie très différent : en effet, c'est une espèce pélagique vivant dans des eaux claires.
 </t>
         </is>
       </c>
@@ -613,10 +631,12 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 décembre 2022)[2] :
-Actinobolina (Stein) Strand, 1928[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 décembre 2022) :
+Actinobolina (Stein) Strand, 1928
 Actinobolus
 Belonophrya André, 1914
 Dactylochlamys Lauterborn, 1901</t>
@@ -647,9 +667,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Actinobolinidae Kahl, 1930[4]. Le nom du genre type, Actinobolus, initialement donné par de Stein en 1867, a dû être modifié par Strand en Actinobolina[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Actinobolinidae Kahl, 1930. Le nom du genre type, Actinobolus, initialement donné par de Stein en 1867, a dû être modifié par Strand en Actinobolina.
 </t>
         </is>
       </c>
